--- a/Data/2022/Day3/logsheet.xlsx
+++ b/Data/2022/Day3/logsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olanr\Downloads\MIRDriftersAndCTDs\OtherDaysData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olanr\Downloads\OceanographyAnalysis\Data\2022\Day3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C42C8EE-4C49-4A7E-91A9-868411B2F0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D3CC2C-01F4-45A2-8745-AA7C088414A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="4950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -25,119 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Deployment Time</t>
-  </si>
-  <si>
-    <t>Lon</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Time of Recovery</t>
-  </si>
-  <si>
     <t>CTD</t>
   </si>
   <si>
-    <t>006º 0.623</t>
-  </si>
-  <si>
-    <t>42º59.599</t>
-  </si>
-  <si>
-    <t>005º59.033W</t>
-  </si>
-  <si>
-    <t>43º4.674</t>
-  </si>
-  <si>
-    <t>005º59.972</t>
-  </si>
-  <si>
-    <t>43º4,813</t>
-  </si>
-  <si>
-    <t>006º0.041</t>
-  </si>
-  <si>
-    <t>43º5.421</t>
-  </si>
-  <si>
-    <t>005º59.593</t>
-  </si>
-  <si>
-    <t>43º5.133</t>
-  </si>
-  <si>
-    <t>005º59.716</t>
-  </si>
-  <si>
-    <t>43º5.224</t>
-  </si>
-  <si>
-    <t>005º58.987</t>
-  </si>
-  <si>
-    <t>43º4.686</t>
-  </si>
-  <si>
-    <t>005º58.677</t>
-  </si>
-  <si>
-    <t>43º4.495</t>
-  </si>
-  <si>
-    <t>005º58.499</t>
-  </si>
-  <si>
-    <t>43º4.402</t>
-  </si>
-  <si>
-    <t>005º58.501</t>
-  </si>
-  <si>
-    <t>43º4.335</t>
-  </si>
-  <si>
-    <t>005º58.416</t>
-  </si>
-  <si>
-    <t>43º4.669</t>
-  </si>
-  <si>
-    <t>005º58.209</t>
-  </si>
-  <si>
-    <t>43º4.851</t>
-  </si>
-  <si>
-    <t>005º58.569</t>
-  </si>
-  <si>
-    <t>43º4.882</t>
-  </si>
-  <si>
-    <t>005º58.265</t>
-  </si>
-  <si>
-    <t>43º4.949</t>
-  </si>
-  <si>
-    <t>005º45.322</t>
-  </si>
-  <si>
-    <t>42º58.672</t>
-  </si>
-  <si>
-    <t>Station No</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -148,13 +43,133 @@
   </si>
   <si>
     <t>WND</t>
+  </si>
+  <si>
+    <t>005d59.972</t>
+  </si>
+  <si>
+    <t>005d58.987</t>
+  </si>
+  <si>
+    <t>005d58.416</t>
+  </si>
+  <si>
+    <t>006d0.623</t>
+  </si>
+  <si>
+    <t>005d59.033</t>
+  </si>
+  <si>
+    <t>43d4,813</t>
+  </si>
+  <si>
+    <t>43d4.686</t>
+  </si>
+  <si>
+    <t>43d4.669</t>
+  </si>
+  <si>
+    <t>42d59.599</t>
+  </si>
+  <si>
+    <t>43d4.674</t>
+  </si>
+  <si>
+    <t>005d59.593</t>
+  </si>
+  <si>
+    <t>005d59.716</t>
+  </si>
+  <si>
+    <t>006d0.041</t>
+  </si>
+  <si>
+    <t>005d58.501</t>
+  </si>
+  <si>
+    <t>005d58.499</t>
+  </si>
+  <si>
+    <t>005d58.677</t>
+  </si>
+  <si>
+    <t>005d58.209</t>
+  </si>
+  <si>
+    <t>005d58.569</t>
+  </si>
+  <si>
+    <t>005d58.265</t>
+  </si>
+  <si>
+    <t>005d45.322</t>
+  </si>
+  <si>
+    <t>43d5.133</t>
+  </si>
+  <si>
+    <t>43d5.224</t>
+  </si>
+  <si>
+    <t>43d5.421</t>
+  </si>
+  <si>
+    <t>43d4.335</t>
+  </si>
+  <si>
+    <t>43d4.402</t>
+  </si>
+  <si>
+    <t>43d4.495</t>
+  </si>
+  <si>
+    <t>43d4.851</t>
+  </si>
+  <si>
+    <t>43d4.882</t>
+  </si>
+  <si>
+    <t>43d4.949</t>
+  </si>
+  <si>
+    <t>42d58.672</t>
+  </si>
+  <si>
+    <t>StationNo</t>
+  </si>
+  <si>
+    <t>DepTime</t>
+  </si>
+  <si>
+    <t>DepLong</t>
+  </si>
+  <si>
+    <t>DepLat</t>
+  </si>
+  <si>
+    <t>RecovTime</t>
+  </si>
+  <si>
+    <t>RecovLong</t>
+  </si>
+  <si>
+    <t>RecovLat</t>
+  </si>
+  <si>
+    <t>DepDate</t>
+  </si>
+  <si>
+    <t>RecovDate</t>
+  </si>
+  <si>
+    <t>13-11-2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -179,6 +194,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -442,50 +462,56 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="2" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -493,28 +519,34 @@
         <v>3368</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4">
         <v>0.41249999999999998</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="4">
         <v>0.61041666666666672</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -522,28 +554,34 @@
         <v>274</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="4">
         <v>0.41249999999999998</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="4">
         <v>0.11180555555555556</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -551,28 +589,34 @@
         <v>2052</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4">
         <v>0.41249999999999998</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -580,28 +624,34 @@
         <v>279</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4">
         <v>0.41875000000000001</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4">
-        <v>0.58194444444444449</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>25</v>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -609,28 +659,34 @@
         <v>6439</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4">
         <v>0.41875000000000001</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="4">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="4">
         <v>0.57986111111111116</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -638,28 +694,34 @@
         <v>8436</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="4">
         <v>0.41875000000000001</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="4">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="4">
         <v>0.57777777777777772</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="K7" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -667,28 +729,34 @@
         <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4">
         <v>0.43125000000000002</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="4">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="4">
         <v>0.60416666666666663</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>29</v>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -696,28 +764,34 @@
         <v>7230</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="4">
         <v>0.43125000000000002</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="4">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="4">
         <v>0.59861111111111109</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>31</v>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -725,28 +799,34 @@
         <v>273</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="4">
         <v>0.43125000000000002</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="4">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="4">
         <v>0.6</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>33</v>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -754,70 +834,86 @@
         <v>9666</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="4">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="4">
         <v>0.48541666666666666</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3">
         <v>0.5395833333333333</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="3">
         <v>0.58472222222222225</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1803,9 +1899,10 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K13">
     <sortCondition ref="A2:A13"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>